--- a/examples/results/T001/T001_0_3.xlsx
+++ b/examples/results/T001/T001_0_3.xlsx
@@ -6,13 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="CANONICAL TABLE" r:id="rId3" sheetId="1"/>
+    <sheet name="ENTRIES" r:id="rId4" sheetId="2"/>
+    <sheet name="LABELS" r:id="rId5" sheetId="3"/>
+    <sheet name="INFO" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>DATA</t>
   </si>
@@ -35,21 +38,21 @@
     <t>1</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -95,12 +98,12 @@
     <t>11</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -111,6 +114,72 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>ENTRY</t>
+  </si>
+  <si>
+    <t>PROVENANCE</t>
+  </si>
+  <si>
+    <t>LABELS</t>
+  </si>
+  <si>
+    <t>"c [D28]", "a [D27]", "j [C30]", "f [D29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"d [E28]", "a [D27]", "j [C30]", "f [D29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"c [F28]", "b [F27]", "j [C30]", "g [F29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"d [G28]", "b [F27]", "j [C30]", "g [F29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"e [H28]", "b [F27]", "j [C30]", "g [F29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"c [D28]", "a [D27]", "k [C31]", "f [D29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"d [E28]", "a [D27]", "k [C31]", "f [D29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"c [F28]", "b [F27]", "k [C31]", "g [F29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"d [G28]", "b [F27]", "k [C31]", "g [F29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"e [H28]", "b [F27]", "k [C31]", "g [F29]", "h [B30]"</t>
+  </si>
+  <si>
+    <t>"c [D28]", "a [D27]", "l [C32]", "f [D29]", "i [B32]"</t>
+  </si>
+  <si>
+    <t>"d [E28]", "a [D27]", "l [C32]", "f [D29]", "i [B32]"</t>
+  </si>
+  <si>
+    <t>"c [F28]", "b [F27]", "l [C32]", "g [F29]", "i [B32]"</t>
+  </si>
+  <si>
+    <t>"d [G28]", "b [F27]", "l [C32]", "g [F29]", "i [B32]"</t>
+  </si>
+  <si>
+    <t>"e [H28]", "b [F27]", "l [C32]", "g [F29]", "i [B32]"</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>LINK TO THE SOURCE TABLE</t>
   </si>
 </sst>
 </file>
@@ -160,6 +229,14 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="5.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.640625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -206,10 +283,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -229,10 +306,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -246,13 +323,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -266,13 +343,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -292,13 +369,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -306,19 +383,19 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -329,16 +406,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -346,19 +423,19 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -366,19 +443,19 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -386,13 +463,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -406,13 +483,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -426,13 +503,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -446,13 +523,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -466,19 +543,424 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="45.5546875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D30","D30")</f>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E30","E30")</f>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F30","F30")</f>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G30","G30")</f>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!H30","H30")</f>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D31","D31")</f>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E31","E31")</f>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F31","F31")</f>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G31","G31")</f>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!H31","H31")</f>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D32","D32")</f>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E32","E32")</f>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F32","F32")</f>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G32","G32")</f>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!H32","H32")</f>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.63671875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D27","D27")</f>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F27","F27")</f>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D28","D28")</f>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E28","E28")</f>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F28","F28")</f>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G28","G28")</f>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!H28","H28")</f>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D29","D29")</f>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F29","F29")</f>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!B30","B30")</f>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!C30","C30")</f>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!C31","C31")</f>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!B32","B32")</f>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!C32","C32")</f>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="25.7890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!B27","[..\..\T001.xlsx]001!B27")</f>
       </c>
     </row>
   </sheetData>
